--- a/backend/excel_outputs/benni.xlsx
+++ b/backend/excel_outputs/benni.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rosumibe 20/10 mg 1 cp la sera</t>
+          <t>Rosumibe 10/10 mg 1 cp la sera</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KCL retard 1 cp/die</t>
+          <t>KCL retard 2 cp la mattina e 2 cp nel pomeriggio</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3000000</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
